--- a/analysis_specifications/analysis2_joel_4.xlsx
+++ b/analysis_specifications/analysis2_joel_4.xlsx
@@ -450,7 +450,7 @@
         </is>
       </c>
       <c r="C2">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -463,7 +463,7 @@
         </is>
       </c>
       <c r="C3">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -476,7 +476,7 @@
         </is>
       </c>
       <c r="C4">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -489,7 +489,7 @@
         </is>
       </c>
       <c r="C5">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/analysis_specifications/analysis2_joel_4.xlsx
+++ b/analysis_specifications/analysis2_joel_4.xlsx
@@ -352,7 +352,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -382,29 +382,19 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pulmonary Arterial Hypertension</t>
+          <t>Pulmonary hypertension associated with left heart disease (WHO Group 2)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B4" t="inlineStr">
-        <is>
-          <t>Pulmonary hypertension associated with left heart disease (WHO Group 2)</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5">
-        <v>751</v>
-      </c>
-      <c r="B5" t="inlineStr">
         <is>
           <t>Pulmonary hypertension associated with lung diseases and/or hypoxia (WHO Group 3)</t>
         </is>
@@ -417,7 +407,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -455,11 +445,11 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pulmonary Arterial Hypertension</t>
+          <t>Pulmonary hypertension associated with left heart disease (WHO Group 2)</t>
         </is>
       </c>
       <c r="C3">
@@ -468,27 +458,14 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pulmonary hypertension associated with left heart disease (WHO Group 2)</t>
+          <t>Pulmonary hypertension associated with lung diseases and/or hypoxia (WHO Group 3)</t>
         </is>
       </c>
       <c r="C4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5">
-        <v>751</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Pulmonary hypertension associated with lung diseases and/or hypoxia (WHO Group 3)</t>
-        </is>
-      </c>
-      <c r="C5">
         <v>0</v>
       </c>
     </row>
